--- a/cherry_project/Resources/Sogeti.xlsx
+++ b/cherry_project/Resources/Sogeti.xlsx
@@ -60,9 +60,6 @@
     <t>question_behave</t>
   </si>
   <si>
-    <t xml:space="preserve"> Digital, Testing, Secutrité, et Infrastructures</t>
-  </si>
-  <si>
     <t>Sogeti se distingue dans 4 domaines</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Slide</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Digital, Testing, Securité, et Infrastructures</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -450,13 +450,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -494,10 +494,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -508,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>

--- a/cherry_project/Resources/Sogeti.xlsx
+++ b/cherry_project/Resources/Sogeti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Text</t>
   </si>
@@ -24,9 +24,6 @@
     <t>point_arm_left_behave</t>
   </si>
   <si>
-    <t>Pour plus d'informations, je t'invite à te rendre sur le site sogeti.fr</t>
-  </si>
-  <si>
     <t>swap_behave</t>
   </si>
   <si>
@@ -45,38 +42,89 @@
     <t>Diapositive3.PNG</t>
   </si>
   <si>
-    <t>Sogeti est une entreprise de services numérique, filiale du groupe Capgémini</t>
-  </si>
-  <si>
     <t>left_arm_up_behave</t>
   </si>
   <si>
-    <t>dont 6000 en France</t>
-  </si>
-  <si>
-    <t>Elle compte actuellement plus de 20 000 collaborateurs</t>
-  </si>
-  <si>
     <t>question_behave</t>
   </si>
   <si>
-    <t>Sogeti se distingue dans 4 domaines</t>
-  </si>
-  <si>
     <t>Behave</t>
   </si>
   <si>
     <t>Slide</t>
   </si>
   <si>
-    <t xml:space="preserve"> Digital, Testing, Securité, et Infrastructures</t>
+    <t>Sogeti est l’un des leaders des services technologiques et du test logiciel</t>
+  </si>
+  <si>
+    <t>spécialisé dans la gestion des applicatifs</t>
+  </si>
+  <si>
+    <t>Digital, Testing, Sécurité et Infrastructure</t>
+  </si>
+  <si>
+    <t>en s’appuyant sur ses capacités industrielles.</t>
+  </si>
+  <si>
+    <t>au travers d'une gamme complète de solutions personnalisées, adaptées à leur environnement.</t>
+  </si>
+  <si>
+    <t>Sogeti France apporte à ses clients des expertises à forte valeur ajoutée</t>
+  </si>
+  <si>
+    <t>la société réunit plus de 20 000 collaborateurs</t>
+  </si>
+  <si>
+    <t>Présente dans 15 pays avec plus de 100 implantations locales en Europe, aux Etats-Unis et en Inde</t>
+  </si>
+  <si>
+    <t>Sogeti permet à ses clients de beneficier des dernieres technologies</t>
+  </si>
+  <si>
+    <t>Sogeti a noué deux alliances stratégiques avec IBM et Microsoft</t>
+  </si>
+  <si>
+    <t>et dispose également d’un écosystème de partenaires</t>
+  </si>
+  <si>
+    <t>A travers ces partenariats privilégiés</t>
+  </si>
+  <si>
+    <t>et les accompagne dans leurs intégrations</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations, je t'invite à te rendre sur le site www.fr.sogeti.com</t>
+  </si>
+  <si>
+    <t>Sogeti France propose d’accompagner les entreprises dans 4 domaines</t>
+  </si>
+  <si>
+    <t>Un des leaders mondiaux du conseil en management et en services informatiques</t>
+  </si>
+  <si>
+    <t>En 2014, le chiffre d'affaire de Sogeti France s'elevait à 1,6 milliards d'euros.</t>
+  </si>
+  <si>
+    <t>Diapositive4.PNG</t>
+  </si>
+  <si>
+    <t>Diapositive5.PNG</t>
+  </si>
+  <si>
+    <t>Sogeti est une filiale à 100% du groupe Capgémini</t>
+  </si>
+  <si>
+    <t>Diapositive6.PNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">des infrastructures et des services en ingénierie. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +157,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -141,6 +195,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,105 +491,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="88" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
